--- a/result/cleaned_flc.xlsx
+++ b/result/cleaned_flc.xlsx
@@ -67,7 +67,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -440,6 +440,14 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="11.6" customWidth="1" min="1" max="1"/>
+    <col width="9.199999999999999" customWidth="1" min="2" max="2"/>
+    <col width="9.199999999999999" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
